--- a/DB_Storage.xlsx
+++ b/DB_Storage.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\OneDrive\Рабочий стол\AltiumComponentsDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\AltiumComponentsDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC49638-192E-4C6D-8A9F-992BAFF04A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA55135-04EA-4A7C-87B7-3E0C5E63F99C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A089573D-47DD-4E83-94CE-AFD20D1F25ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A089573D-47DD-4E83-94CE-AFD20D1F25ED}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD_Resistors" sheetId="1" r:id="rId1"/>
+    <sheet name="SMD_Ceramic_Capacitors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18422" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18463" uniqueCount="123">
   <si>
     <t>Part Number</t>
   </si>
@@ -387,6 +388,21 @@
   </si>
   <si>
     <t>1 Вт</t>
+  </si>
+  <si>
+    <t>SMD конденсатор керамический</t>
+  </si>
+  <si>
+    <t>NP0</t>
+  </si>
+  <si>
+    <t>50В</t>
+  </si>
+  <si>
+    <t>пФ</t>
+  </si>
+  <si>
+    <t>CerCapacitor</t>
   </si>
 </sst>
 </file>
@@ -759,9 +775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E84687-F19A-4742-80D1-5E95483426CD}">
   <dimension ref="A1:Z1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1155" sqref="S1155"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -80346,4 +80362,173 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575C3555-0903-45F8-9DE5-1C223B311BF2}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="26" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(N2," ",K2," ",S2," ",O2)</f>
+        <v>1 пФ 1% 50В 0603</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" t="str">
+        <f>_xlfn.CONCAT(Z2," ",Y2)</f>
+        <v>1 пФ</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="5" t="str">
+        <f>_xlfn.CONCAT("C",O2)</f>
+        <v>C0603</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB_Storage.xlsx
+++ b/DB_Storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\AltiumComponentsDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E43458-C9F5-4477-9736-9019CB0F677C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34773C03-BDC7-4686-8DCB-FAED3C6E8949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A089573D-47DD-4E83-94CE-AFD20D1F25ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20142" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21242" uniqueCount="181">
   <si>
     <t>Part Number</t>
   </si>
@@ -438,10 +438,145 @@
     <t>3000</t>
   </si>
   <si>
-    <t>0.25%</t>
+    <t>3300</t>
   </si>
   <si>
-    <t>3300</t>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>3900</t>
+  </si>
+  <si>
+    <t>4300</t>
+  </si>
+  <si>
+    <t>4700</t>
+  </si>
+  <si>
+    <t>5100</t>
+  </si>
+  <si>
+    <t>5600</t>
+  </si>
+  <si>
+    <t>6200</t>
+  </si>
+  <si>
+    <t>6800</t>
+  </si>
+  <si>
+    <t>7500</t>
+  </si>
+  <si>
+    <t>8200</t>
+  </si>
+  <si>
+    <t>9100</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>X7R</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>мкФ</t>
+  </si>
+  <si>
+    <t>16В</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.82</t>
   </si>
 </sst>
 </file>
@@ -79250,11 +79385,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575C3555-0903-45F8-9DE5-1C223B311BF2}">
-  <dimension ref="A1:W86"/>
+  <dimension ref="A1:W144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U89" sqref="U89"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -79337,7 +79472,7 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT(K2," ",I2," ",J2," ",P2," ",L2)</f>
-        <v>1 пФ 0.25% NP0 50В 0603</v>
+        <v>1 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>121</v>
@@ -79361,7 +79496,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>118</v>
@@ -79411,7 +79546,7 @@
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">_xlfn.CONCAT(K3," ",I3," ",J3," ",P3," ",L3)</f>
-        <v>1.1 пФ 0.25% NP0 50В 0603</v>
+        <v>1.1 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>121</v>
@@ -79435,7 +79570,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>118</v>
@@ -79485,7 +79620,7 @@
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>1.2 пФ 0.25% NP0 50В 0603</v>
+        <v>1.2 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>121</v>
@@ -79509,7 +79644,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>118</v>
@@ -79559,7 +79694,7 @@
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>1.3 пФ 0.25% NP0 50В 0603</v>
+        <v>1.3 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>121</v>
@@ -79583,7 +79718,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>118</v>
@@ -79633,7 +79768,7 @@
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>1.5 пФ 0.25% NP0 50В 0603</v>
+        <v>1.5 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>121</v>
@@ -79657,7 +79792,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>118</v>
@@ -79707,7 +79842,7 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>1.6 пФ 0.25% NP0 50В 0603</v>
+        <v>1.6 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>121</v>
@@ -79731,7 +79866,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>118</v>
@@ -79781,7 +79916,7 @@
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>1.8 пФ 0.25% NP0 50В 0603</v>
+        <v>1.8 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>121</v>
@@ -79805,7 +79940,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>118</v>
@@ -79855,7 +79990,7 @@
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>2 пФ 0.25% NP0 50В 0603</v>
+        <v>2 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>121</v>
@@ -79879,7 +80014,7 @@
         <v>29</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>118</v>
@@ -79929,7 +80064,7 @@
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>2.2 пФ 0.25% NP0 50В 0603</v>
+        <v>2.2 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>121</v>
@@ -79953,7 +80088,7 @@
         <v>29</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>118</v>
@@ -80003,7 +80138,7 @@
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>2.4 пФ 0.25% NP0 50В 0603</v>
+        <v>2.4 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>121</v>
@@ -80027,7 +80162,7 @@
         <v>29</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>118</v>
@@ -80077,7 +80212,7 @@
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>2.7 пФ 0.25% NP0 50В 0603</v>
+        <v>2.7 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>121</v>
@@ -80101,7 +80236,7 @@
         <v>29</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>118</v>
@@ -80151,7 +80286,7 @@
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>3 пФ 0.25% NP0 50В 0603</v>
+        <v>3 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>121</v>
@@ -80175,7 +80310,7 @@
         <v>29</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>118</v>
@@ -80225,7 +80360,7 @@
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>3.3 пФ 0.25% NP0 50В 0603</v>
+        <v>3.3 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>121</v>
@@ -80249,7 +80384,7 @@
         <v>29</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>118</v>
@@ -80299,7 +80434,7 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>3.6 пФ 0.25% NP0 50В 0603</v>
+        <v>3.6 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>121</v>
@@ -80323,7 +80458,7 @@
         <v>29</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>118</v>
@@ -80373,7 +80508,7 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>3.9 пФ 0.25% NP0 50В 0603</v>
+        <v>3.9 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>121</v>
@@ -80397,7 +80532,7 @@
         <v>29</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>118</v>
@@ -80447,7 +80582,7 @@
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>4.3 пФ 0.25% NP0 50В 0603</v>
+        <v>4.3 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>121</v>
@@ -80471,7 +80606,7 @@
         <v>29</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>118</v>
@@ -80521,7 +80656,7 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>4.7 пФ 0.25% NP0 50В 0603</v>
+        <v>4.7 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>121</v>
@@ -80545,7 +80680,7 @@
         <v>29</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>118</v>
@@ -80595,7 +80730,7 @@
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>5.1 пФ 0.25% NP0 50В 0603</v>
+        <v>5.1 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>121</v>
@@ -80619,7 +80754,7 @@
         <v>29</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>118</v>
@@ -80669,7 +80804,7 @@
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>5.6 пФ 0.25% NP0 50В 0603</v>
+        <v>5.6 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>121</v>
@@ -80693,7 +80828,7 @@
         <v>29</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>118</v>
@@ -80743,7 +80878,7 @@
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>6.2 пФ 0.25% NP0 50В 0603</v>
+        <v>6.2 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>121</v>
@@ -80767,7 +80902,7 @@
         <v>29</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>118</v>
@@ -80817,7 +80952,7 @@
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>6.8 пФ 0.25% NP0 50В 0603</v>
+        <v>6.8 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>121</v>
@@ -80841,7 +80976,7 @@
         <v>29</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>118</v>
@@ -80891,7 +81026,7 @@
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>7.5 пФ 0.25% NP0 50В 0603</v>
+        <v>7.5 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>121</v>
@@ -80915,7 +81050,7 @@
         <v>29</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>118</v>
@@ -80965,7 +81100,7 @@
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>8.2 пФ 0.25% NP0 50В 0603</v>
+        <v>8.2 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>121</v>
@@ -80989,7 +81124,7 @@
         <v>29</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>118</v>
@@ -81039,7 +81174,7 @@
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>9.1 пФ 0.25% NP0 50В 0603</v>
+        <v>9.1 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>121</v>
@@ -81063,7 +81198,7 @@
         <v>29</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>118</v>
@@ -81113,7 +81248,7 @@
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>10 пФ 0.25% NP0 50В 0603</v>
+        <v>10 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>121</v>
@@ -81137,7 +81272,7 @@
         <v>29</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>118</v>
@@ -81187,7 +81322,7 @@
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>11 пФ 0.25% NP0 50В 0603</v>
+        <v>11 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>121</v>
@@ -81211,7 +81346,7 @@
         <v>29</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>118</v>
@@ -81261,7 +81396,7 @@
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>12 пФ 0.25% NP0 50В 0603</v>
+        <v>12 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>121</v>
@@ -81285,7 +81420,7 @@
         <v>29</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>118</v>
@@ -81335,7 +81470,7 @@
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>13 пФ 0.25% NP0 50В 0603</v>
+        <v>13 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>121</v>
@@ -81359,7 +81494,7 @@
         <v>29</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>118</v>
@@ -81409,7 +81544,7 @@
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>15 пФ 0.25% NP0 50В 0603</v>
+        <v>15 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>121</v>
@@ -81433,7 +81568,7 @@
         <v>29</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>118</v>
@@ -81483,7 +81618,7 @@
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>16 пФ 0.25% NP0 50В 0603</v>
+        <v>16 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>121</v>
@@ -81507,7 +81642,7 @@
         <v>29</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>118</v>
@@ -81557,7 +81692,7 @@
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>18 пФ 0.25% NP0 50В 0603</v>
+        <v>18 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>121</v>
@@ -81581,7 +81716,7 @@
         <v>29</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>118</v>
@@ -81631,7 +81766,7 @@
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>20 пФ 0.25% NP0 50В 0603</v>
+        <v>20 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>121</v>
@@ -81655,7 +81790,7 @@
         <v>29</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>118</v>
@@ -81705,7 +81840,7 @@
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>22 пФ 0.25% NP0 50В 0603</v>
+        <v>22 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>121</v>
@@ -81729,7 +81864,7 @@
         <v>29</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>118</v>
@@ -81779,7 +81914,7 @@
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>24 пФ 0.25% NP0 50В 0603</v>
+        <v>24 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>121</v>
@@ -81803,7 +81938,7 @@
         <v>29</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>118</v>
@@ -81853,7 +81988,7 @@
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>27 пФ 0.25% NP0 50В 0603</v>
+        <v>27 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>121</v>
@@ -81877,7 +82012,7 @@
         <v>29</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>118</v>
@@ -81927,7 +82062,7 @@
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>30 пФ 0.25% NP0 50В 0603</v>
+        <v>30 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>121</v>
@@ -81951,7 +82086,7 @@
         <v>29</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>118</v>
@@ -82001,7 +82136,7 @@
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>33 пФ 0.25% NP0 50В 0603</v>
+        <v>33 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>121</v>
@@ -82025,7 +82160,7 @@
         <v>29</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>118</v>
@@ -82075,7 +82210,7 @@
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>36 пФ 0.25% NP0 50В 0603</v>
+        <v>36 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>121</v>
@@ -82099,7 +82234,7 @@
         <v>29</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>118</v>
@@ -82149,7 +82284,7 @@
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>39 пФ 0.25% NP0 50В 0603</v>
+        <v>39 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>121</v>
@@ -82173,7 +82308,7 @@
         <v>29</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>118</v>
@@ -82223,7 +82358,7 @@
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>43 пФ 0.25% NP0 50В 0603</v>
+        <v>43 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>121</v>
@@ -82247,7 +82382,7 @@
         <v>29</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>118</v>
@@ -82297,7 +82432,7 @@
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>47 пФ 0.25% NP0 50В 0603</v>
+        <v>47 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>121</v>
@@ -82321,7 +82456,7 @@
         <v>29</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>118</v>
@@ -82371,7 +82506,7 @@
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>51 пФ 0.25% NP0 50В 0603</v>
+        <v>51 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>121</v>
@@ -82395,7 +82530,7 @@
         <v>29</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>118</v>
@@ -82445,7 +82580,7 @@
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>56 пФ 0.25% NP0 50В 0603</v>
+        <v>56 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>121</v>
@@ -82469,7 +82604,7 @@
         <v>29</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>118</v>
@@ -82519,7 +82654,7 @@
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>62 пФ 0.25% NP0 50В 0603</v>
+        <v>62 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>121</v>
@@ -82543,7 +82678,7 @@
         <v>29</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>118</v>
@@ -82593,7 +82728,7 @@
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>68 пФ 0.25% NP0 50В 0603</v>
+        <v>68 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>121</v>
@@ -82617,7 +82752,7 @@
         <v>29</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>118</v>
@@ -82667,7 +82802,7 @@
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>75 пФ 0.25% NP0 50В 0603</v>
+        <v>75 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>121</v>
@@ -82691,7 +82826,7 @@
         <v>29</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>118</v>
@@ -82741,7 +82876,7 @@
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>82 пФ 0.25% NP0 50В 0603</v>
+        <v>82 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>121</v>
@@ -82765,7 +82900,7 @@
         <v>29</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>118</v>
@@ -82815,7 +82950,7 @@
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>91 пФ 0.25% NP0 50В 0603</v>
+        <v>91 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>121</v>
@@ -82839,7 +82974,7 @@
         <v>29</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>118</v>
@@ -82889,7 +83024,7 @@
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>100 пФ 0.25% NP0 50В 0603</v>
+        <v>100 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>121</v>
@@ -82913,7 +83048,7 @@
         <v>29</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>118</v>
@@ -82963,7 +83098,7 @@
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>110 пФ 0.25% NP0 50В 0603</v>
+        <v>110 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>121</v>
@@ -82987,7 +83122,7 @@
         <v>29</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>118</v>
@@ -83037,7 +83172,7 @@
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>120 пФ 0.25% NP0 50В 0603</v>
+        <v>120 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>121</v>
@@ -83061,7 +83196,7 @@
         <v>29</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>118</v>
@@ -83111,7 +83246,7 @@
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>130 пФ 0.25% NP0 50В 0603</v>
+        <v>130 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>121</v>
@@ -83135,7 +83270,7 @@
         <v>29</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>118</v>
@@ -83185,7 +83320,7 @@
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>150 пФ 0.25% NP0 50В 0603</v>
+        <v>150 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>121</v>
@@ -83209,7 +83344,7 @@
         <v>29</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>118</v>
@@ -83259,7 +83394,7 @@
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>160 пФ 0.25% NP0 50В 0603</v>
+        <v>160 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>121</v>
@@ -83283,7 +83418,7 @@
         <v>29</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>118</v>
@@ -83333,7 +83468,7 @@
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>180 пФ 0.25% NP0 50В 0603</v>
+        <v>180 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>121</v>
@@ -83357,7 +83492,7 @@
         <v>29</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>118</v>
@@ -83407,7 +83542,7 @@
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>200 пФ 0.25% NP0 50В 0603</v>
+        <v>200 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>121</v>
@@ -83431,7 +83566,7 @@
         <v>29</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>118</v>
@@ -83481,7 +83616,7 @@
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>220 пФ 0.25% NP0 50В 0603</v>
+        <v>220 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>121</v>
@@ -83505,7 +83640,7 @@
         <v>29</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>118</v>
@@ -83555,7 +83690,7 @@
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>240 пФ 0.25% NP0 50В 0603</v>
+        <v>240 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>121</v>
@@ -83579,7 +83714,7 @@
         <v>29</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>118</v>
@@ -83629,7 +83764,7 @@
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>270 пФ 0.25% NP0 50В 0603</v>
+        <v>270 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>121</v>
@@ -83653,7 +83788,7 @@
         <v>29</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>118</v>
@@ -83703,7 +83838,7 @@
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>300 пФ 0.25% NP0 50В 0603</v>
+        <v>300 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>121</v>
@@ -83727,7 +83862,7 @@
         <v>29</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>118</v>
@@ -83777,7 +83912,7 @@
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>330 пФ 0.25% NP0 50В 0603</v>
+        <v>330 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>121</v>
@@ -83801,7 +83936,7 @@
         <v>29</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>118</v>
@@ -83851,7 +83986,7 @@
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>360 пФ 0.25% NP0 50В 0603</v>
+        <v>360 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>121</v>
@@ -83875,7 +84010,7 @@
         <v>29</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>118</v>
@@ -83925,7 +84060,7 @@
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>390 пФ 0.25% NP0 50В 0603</v>
+        <v>390 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>121</v>
@@ -83949,7 +84084,7 @@
         <v>29</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>118</v>
@@ -83999,7 +84134,7 @@
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>430 пФ 0.25% NP0 50В 0603</v>
+        <v>430 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>121</v>
@@ -84023,7 +84158,7 @@
         <v>29</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>118</v>
@@ -84073,7 +84208,7 @@
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v>470 пФ 0.25% NP0 50В 0603</v>
+        <v>470 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>121</v>
@@ -84097,7 +84232,7 @@
         <v>29</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>118</v>
@@ -84147,7 +84282,7 @@
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A84" si="3">_xlfn.CONCAT(K67," ",I67," ",J67," ",P67," ",L67)</f>
-        <v>510 пФ 0.25% NP0 50В 0603</v>
+        <v>510 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>121</v>
@@ -84171,7 +84306,7 @@
         <v>29</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>118</v>
@@ -84221,7 +84356,7 @@
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="3"/>
-        <v>560 пФ 0.25% NP0 50В 0603</v>
+        <v>560 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>121</v>
@@ -84245,7 +84380,7 @@
         <v>29</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>118</v>
@@ -84295,7 +84430,7 @@
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="3"/>
-        <v>620 пФ 0.25% NP0 50В 0603</v>
+        <v>620 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>121</v>
@@ -84319,7 +84454,7 @@
         <v>29</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>118</v>
@@ -84369,7 +84504,7 @@
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="3"/>
-        <v>680 пФ 0.25% NP0 50В 0603</v>
+        <v>680 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>121</v>
@@ -84393,7 +84528,7 @@
         <v>29</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>118</v>
@@ -84443,7 +84578,7 @@
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="3"/>
-        <v>750 пФ 0.25% NP0 50В 0603</v>
+        <v>750 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>121</v>
@@ -84467,7 +84602,7 @@
         <v>29</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>118</v>
@@ -84517,7 +84652,7 @@
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="3"/>
-        <v>820 пФ 0.25% NP0 50В 0603</v>
+        <v>820 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>121</v>
@@ -84541,7 +84676,7 @@
         <v>29</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>118</v>
@@ -84591,7 +84726,7 @@
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="3"/>
-        <v>910 пФ 0.25% NP0 50В 0603</v>
+        <v>910 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>121</v>
@@ -84615,7 +84750,7 @@
         <v>29</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>118</v>
@@ -84665,7 +84800,7 @@
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="3"/>
-        <v>1000 пФ 0.25% NP0 50В 0603</v>
+        <v>1000 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>121</v>
@@ -84689,7 +84824,7 @@
         <v>29</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>118</v>
@@ -84739,7 +84874,7 @@
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="3"/>
-        <v>1100 пФ 0.25% NP0 50В 0603</v>
+        <v>1100 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>121</v>
@@ -84763,7 +84898,7 @@
         <v>29</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>118</v>
@@ -84813,7 +84948,7 @@
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="3"/>
-        <v>1200 пФ 0.25% NP0 50В 0603</v>
+        <v>1200 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>121</v>
@@ -84837,7 +84972,7 @@
         <v>29</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>118</v>
@@ -84887,7 +85022,7 @@
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="3"/>
-        <v>1300 пФ 0.25% NP0 50В 0603</v>
+        <v>1300 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>121</v>
@@ -84911,7 +85046,7 @@
         <v>29</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>118</v>
@@ -84961,7 +85096,7 @@
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="3"/>
-        <v>1500 пФ 0.25% NP0 50В 0603</v>
+        <v>1500 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>121</v>
@@ -84985,7 +85120,7 @@
         <v>29</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>118</v>
@@ -85035,7 +85170,7 @@
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="3"/>
-        <v>1600 пФ 0.25% NP0 50В 0603</v>
+        <v>1600 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>121</v>
@@ -85059,7 +85194,7 @@
         <v>29</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>118</v>
@@ -85109,7 +85244,7 @@
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="3"/>
-        <v>1800 пФ 0.25% NP0 50В 0603</v>
+        <v>1800 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>121</v>
@@ -85133,7 +85268,7 @@
         <v>29</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>118</v>
@@ -85183,7 +85318,7 @@
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="3"/>
-        <v>2000 пФ 0.25% NP0 50В 0603</v>
+        <v>2000 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>121</v>
@@ -85207,7 +85342,7 @@
         <v>29</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>118</v>
@@ -85257,7 +85392,7 @@
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="3"/>
-        <v>2200 пФ 0.25% NP0 50В 0603</v>
+        <v>2200 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>121</v>
@@ -85281,7 +85416,7 @@
         <v>29</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>118</v>
@@ -85331,7 +85466,7 @@
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="3"/>
-        <v>2400 пФ 0.25% NP0 50В 0603</v>
+        <v>2400 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>121</v>
@@ -85355,7 +85490,7 @@
         <v>29</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>118</v>
@@ -85405,7 +85540,7 @@
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="3"/>
-        <v>2700 пФ 0.25% NP0 50В 0603</v>
+        <v>2700 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>121</v>
@@ -85429,7 +85564,7 @@
         <v>29</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>118</v>
@@ -85478,8 +85613,8 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
-        <f t="shared" ref="A85:A86" si="6">_xlfn.CONCAT(K85," ",I85," ",J85," ",P85," ",L85)</f>
-        <v>3000 пФ 0.25% NP0 50В 0603</v>
+        <f t="shared" ref="A85:A87" si="6">_xlfn.CONCAT(K85," ",I85," ",J85," ",P85," ",L85)</f>
+        <v>3000 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>121</v>
@@ -85503,13 +85638,13 @@
         <v>29</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>118</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" ref="K85:K86" si="7">_xlfn.CONCAT(W85," ",V85)</f>
+        <f t="shared" ref="K85:K87" si="7">_xlfn.CONCAT(W85," ",V85)</f>
         <v>3000 пФ</v>
       </c>
       <c r="L85" s="3" t="s">
@@ -85522,7 +85657,7 @@
         <v>32</v>
       </c>
       <c r="O85" s="5" t="str">
-        <f t="shared" ref="O85:O86" si="8">_xlfn.CONCAT("C",L85)</f>
+        <f t="shared" ref="O85:O87" si="8">_xlfn.CONCAT("C",L85)</f>
         <v>C0603</v>
       </c>
       <c r="P85" s="3" t="s">
@@ -85553,7 +85688,7 @@
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="6"/>
-        <v>3300 пФ 0.25% NP0 50В 0603</v>
+        <v>3300 пФ 1% NP0 50В 0603</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>121</v>
@@ -85577,7 +85712,7 @@
         <v>29</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>118</v>
@@ -85621,8 +85756,4087 @@
         <v>120</v>
       </c>
       <c r="W86" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <f t="shared" si="6"/>
+        <v>3600 пФ 5% X7R 50В 0603</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="7"/>
+        <v>3600 пФ</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O87" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>C0603</v>
+      </c>
+      <c r="P87" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W87" s="3" t="s">
         <v>135</v>
       </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
+        <f t="shared" ref="A88:A97" si="9">_xlfn.CONCAT(K88," ",I88," ",J88," ",P88," ",L88)</f>
+        <v>3900 пФ 5% X7R 50В 0603</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" ref="K88:K113" si="10">_xlfn.CONCAT(W88," ",V88)</f>
+        <v>3900 пФ</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O88" s="5" t="str">
+        <f t="shared" ref="O88:O97" si="11">_xlfn.CONCAT("C",L88)</f>
+        <v>C0603</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V88" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W88" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
+        <f t="shared" si="9"/>
+        <v>4300 пФ 5% X7R 50В 0603</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="10"/>
+        <v>4300 пФ</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O89" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>C0603</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A90" t="str">
+        <f t="shared" si="9"/>
+        <v>4700 пФ 5% X7R 50В 0603</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="10"/>
+        <v>4700 пФ</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O90" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>C0603</v>
+      </c>
+      <c r="P90" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V90" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W90" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
+        <f t="shared" si="9"/>
+        <v>5100 пФ 5% X7R 50В 0603</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="10"/>
+        <v>5100 пФ</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O91" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>C0603</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A92" t="str">
+        <f t="shared" si="9"/>
+        <v>5600 пФ 5% X7R 50В 0603</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="10"/>
+        <v>5600 пФ</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O92" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>C0603</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V92" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W92" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A93" t="str">
+        <f t="shared" si="9"/>
+        <v>6200 пФ 5% X7R 50В 0603</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="10"/>
+        <v>6200 пФ</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O93" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>C0603</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V93" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W93" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A94" t="str">
+        <f t="shared" si="9"/>
+        <v>6800 пФ 5% X7R 50В 0603</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="10"/>
+        <v>6800 пФ</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O94" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>C0603</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A95" t="str">
+        <f t="shared" si="9"/>
+        <v>7500 пФ 5% X7R 50В 0603</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="10"/>
+        <v>7500 пФ</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O95" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>C0603</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V95" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W95" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A96" t="str">
+        <f t="shared" si="9"/>
+        <v>8200 пФ 5% X7R 50В 0603</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="10"/>
+        <v>8200 пФ</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O96" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>C0603</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V96" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W96" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A97" t="str">
+        <f t="shared" si="9"/>
+        <v>9100 пФ 5% X7R 50В 0603</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="10"/>
+        <v>9100 пФ</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O97" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>C0603</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V97" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W97" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A98" t="str">
+        <f t="shared" ref="A98:A113" si="12">_xlfn.CONCAT(K98," ",I98," ",J98," ",P98," ",L98)</f>
+        <v>0.01 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="10"/>
+        <v>0.01 мкФ</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O98" s="5" t="str">
+        <f t="shared" ref="O98:O113" si="13">_xlfn.CONCAT("C",L98)</f>
+        <v>C0603</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V98" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W98" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <f t="shared" si="12"/>
+        <v>0.012 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="10"/>
+        <v>0.012 мкФ</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O99" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V99" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W99" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <f t="shared" si="12"/>
+        <v>0.015 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="10"/>
+        <v>0.015 мкФ</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O100" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A101" t="str">
+        <f t="shared" si="12"/>
+        <v>0.018 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="10"/>
+        <v>0.018 мкФ</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O101" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A102" t="str">
+        <f t="shared" si="12"/>
+        <v>0.02 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="10"/>
+        <v>0.02 мкФ</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O102" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A103" t="str">
+        <f t="shared" si="12"/>
+        <v>0.022 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="10"/>
+        <v>0.022 мкФ</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O103" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P103" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V103" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W103" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A104" t="str">
+        <f t="shared" si="12"/>
+        <v>0.024 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="10"/>
+        <v>0.024 мкФ</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O104" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P104" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V104" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W104" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A105" t="str">
+        <f t="shared" si="12"/>
+        <v>0.027 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="10"/>
+        <v>0.027 мкФ</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O105" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P105" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V105" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W105" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A106" t="str">
+        <f t="shared" si="12"/>
+        <v>0.033 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="10"/>
+        <v>0.033 мкФ</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O106" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V106" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W106" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A107" t="str">
+        <f t="shared" si="12"/>
+        <v>0.036 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K107" t="str">
+        <f t="shared" si="10"/>
+        <v>0.036 мкФ</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O107" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V107" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W107" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A108" t="str">
+        <f t="shared" si="12"/>
+        <v>0.039 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K108" t="str">
+        <f t="shared" si="10"/>
+        <v>0.039 мкФ</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O108" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P108" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V108" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W108" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A109" t="str">
+        <f t="shared" si="12"/>
+        <v>0.047 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K109" t="str">
+        <f t="shared" si="10"/>
+        <v>0.047 мкФ</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O109" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V109" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W109" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A110" t="str">
+        <f t="shared" si="12"/>
+        <v>0.05 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K110" t="str">
+        <f t="shared" si="10"/>
+        <v>0.05 мкФ</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O110" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V110" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W110" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A111" t="str">
+        <f t="shared" si="12"/>
+        <v>0.056 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K111" t="str">
+        <f t="shared" si="10"/>
+        <v>0.056 мкФ</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O111" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V111" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W111" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A112" t="str">
+        <f t="shared" si="12"/>
+        <v>0.068 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K112" t="str">
+        <f t="shared" si="10"/>
+        <v>0.068 мкФ</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O112" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P112" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V112" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W112" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A113" t="str">
+        <f t="shared" si="12"/>
+        <v>0.082 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K113" t="str">
+        <f t="shared" si="10"/>
+        <v>0.082 мкФ</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O113" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>C0603</v>
+      </c>
+      <c r="P113" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V113" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W113" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A114" t="str">
+        <f t="shared" ref="A114:A127" si="14">_xlfn.CONCAT(K114," ",I114," ",J114," ",P114," ",L114)</f>
+        <v>0.1 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K114" t="str">
+        <f t="shared" ref="K114:K127" si="15">_xlfn.CONCAT(W114," ",V114)</f>
+        <v>0.1 мкФ</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O114" s="5" t="str">
+        <f t="shared" ref="O114:O127" si="16">_xlfn.CONCAT("C",L114)</f>
+        <v>C0603</v>
+      </c>
+      <c r="P114" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V114" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W114" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A115" t="str">
+        <f t="shared" si="14"/>
+        <v>0.12 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K115" t="str">
+        <f t="shared" si="15"/>
+        <v>0.12 мкФ</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O115" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>C0603</v>
+      </c>
+      <c r="P115" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q115" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R115" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S115" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T115" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U115" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V115" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W115" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A116" t="str">
+        <f t="shared" si="14"/>
+        <v>0.15 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K116" t="str">
+        <f t="shared" si="15"/>
+        <v>0.15 мкФ</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O116" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>C0603</v>
+      </c>
+      <c r="P116" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V116" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W116" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A117" t="str">
+        <f t="shared" si="14"/>
+        <v>0.18 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K117" t="str">
+        <f t="shared" si="15"/>
+        <v>0.18 мкФ</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N117" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O117" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>C0603</v>
+      </c>
+      <c r="P117" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q117" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R117" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S117" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T117" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U117" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V117" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W117" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A118" t="str">
+        <f t="shared" si="14"/>
+        <v>0.2 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K118" t="str">
+        <f t="shared" si="15"/>
+        <v>0.2 мкФ</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O118" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>C0603</v>
+      </c>
+      <c r="P118" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V118" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W118" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A119" t="str">
+        <f t="shared" si="14"/>
+        <v>0.22 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K119" t="str">
+        <f t="shared" si="15"/>
+        <v>0.22 мкФ</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N119" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O119" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>C0603</v>
+      </c>
+      <c r="P119" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V119" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W119" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A120" t="str">
+        <f t="shared" si="14"/>
+        <v>0.3 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K120" t="str">
+        <f t="shared" si="15"/>
+        <v>0.3 мкФ</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N120" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O120" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>C0603</v>
+      </c>
+      <c r="P120" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V120" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W120" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A121" t="str">
+        <f t="shared" si="14"/>
+        <v>0.33 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K121" t="str">
+        <f t="shared" si="15"/>
+        <v>0.33 мкФ</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N121" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O121" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>C0603</v>
+      </c>
+      <c r="P121" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V121" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W121" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A122" t="str">
+        <f t="shared" si="14"/>
+        <v>0.39 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="15"/>
+        <v>0.39 мкФ</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O122" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>C0603</v>
+      </c>
+      <c r="P122" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V122" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W122" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A123" t="str">
+        <f t="shared" si="14"/>
+        <v>0.4 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="15"/>
+        <v>0.4 мкФ</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O123" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>C0603</v>
+      </c>
+      <c r="P123" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V123" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W123" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A124" t="str">
+        <f t="shared" si="14"/>
+        <v>0.47 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="15"/>
+        <v>0.47 мкФ</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O124" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>C0603</v>
+      </c>
+      <c r="P124" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V124" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W124" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A125" t="str">
+        <f t="shared" si="14"/>
+        <v>0.56 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="15"/>
+        <v>0.56 мкФ</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N125" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O125" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>C0603</v>
+      </c>
+      <c r="P125" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V125" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W125" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A126" t="str">
+        <f t="shared" si="14"/>
+        <v>0.68 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K126" t="str">
+        <f t="shared" si="15"/>
+        <v>0.68 мкФ</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N126" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O126" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>C0603</v>
+      </c>
+      <c r="P126" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V126" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W126" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A127" t="str">
+        <f t="shared" si="14"/>
+        <v>0.82 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" si="15"/>
+        <v>0.82 мкФ</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N127" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O127" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>C0603</v>
+      </c>
+      <c r="P127" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V127" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W127" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A128" t="str">
+        <f t="shared" ref="A128:A141" si="17">_xlfn.CONCAT(K128," ",I128," ",J128," ",P128," ",L128)</f>
+        <v>1 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K128" t="str">
+        <f t="shared" ref="K128:K141" si="18">_xlfn.CONCAT(W128," ",V128)</f>
+        <v>1 мкФ</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N128" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O128" s="5" t="str">
+        <f t="shared" ref="O128:O141" si="19">_xlfn.CONCAT("C",L128)</f>
+        <v>C0603</v>
+      </c>
+      <c r="P128" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V128" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W128" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A129" t="str">
+        <f t="shared" si="17"/>
+        <v>1.2 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K129" t="str">
+        <f t="shared" si="18"/>
+        <v>1.2 мкФ</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M129" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N129" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O129" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>C0603</v>
+      </c>
+      <c r="P129" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q129" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R129" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S129" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T129" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U129" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V129" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W129" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A130" t="str">
+        <f t="shared" si="17"/>
+        <v>1.3 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K130" t="str">
+        <f t="shared" si="18"/>
+        <v>1.3 мкФ</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N130" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O130" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>C0603</v>
+      </c>
+      <c r="P130" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V130" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W130" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A131" t="str">
+        <f t="shared" si="17"/>
+        <v>1.5 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K131" t="str">
+        <f t="shared" si="18"/>
+        <v>1.5 мкФ</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O131" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>C0603</v>
+      </c>
+      <c r="P131" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V131" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W131" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A132" t="str">
+        <f t="shared" si="17"/>
+        <v>1.8 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K132" t="str">
+        <f t="shared" si="18"/>
+        <v>1.8 мкФ</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O132" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>C0603</v>
+      </c>
+      <c r="P132" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V132" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W132" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A133" t="str">
+        <f t="shared" si="17"/>
+        <v>2.2 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K133" t="str">
+        <f t="shared" si="18"/>
+        <v>2.2 мкФ</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N133" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O133" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>C0603</v>
+      </c>
+      <c r="P133" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V133" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W133" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A134" t="str">
+        <f t="shared" si="17"/>
+        <v>2.7 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K134" t="str">
+        <f t="shared" si="18"/>
+        <v>2.7 мкФ</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N134" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O134" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>C0603</v>
+      </c>
+      <c r="P134" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V134" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W134" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A135" t="str">
+        <f t="shared" si="17"/>
+        <v>3.3 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K135" t="str">
+        <f t="shared" si="18"/>
+        <v>3.3 мкФ</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N135" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O135" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>C0603</v>
+      </c>
+      <c r="P135" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V135" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W135" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A136" t="str">
+        <f t="shared" si="17"/>
+        <v>3.6 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K136" t="str">
+        <f t="shared" si="18"/>
+        <v>3.6 мкФ</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N136" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O136" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>C0603</v>
+      </c>
+      <c r="P136" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V136" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W136" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A137" t="str">
+        <f t="shared" si="17"/>
+        <v>3.9 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K137" t="str">
+        <f t="shared" si="18"/>
+        <v>3.9 мкФ</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N137" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O137" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>C0603</v>
+      </c>
+      <c r="P137" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q137" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R137" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S137" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T137" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U137" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V137" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W137" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A138" t="str">
+        <f t="shared" si="17"/>
+        <v>4.7 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K138" t="str">
+        <f t="shared" si="18"/>
+        <v>4.7 мкФ</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O138" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>C0603</v>
+      </c>
+      <c r="P138" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V138" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W138" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A139" t="str">
+        <f t="shared" si="17"/>
+        <v>5.6 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K139" t="str">
+        <f t="shared" si="18"/>
+        <v>5.6 мкФ</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O139" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>C0603</v>
+      </c>
+      <c r="P139" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q139" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R139" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S139" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T139" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U139" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V139" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W139" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A140" t="str">
+        <f t="shared" si="17"/>
+        <v>6.8 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K140" t="str">
+        <f t="shared" si="18"/>
+        <v>6.8 мкФ</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O140" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>C0603</v>
+      </c>
+      <c r="P140" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V140" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W140" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A141" t="str">
+        <f t="shared" si="17"/>
+        <v>8.2 мкФ 1% X7R 16В 0603</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K141" t="str">
+        <f t="shared" si="18"/>
+        <v>8.2 мкФ</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O141" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>C0603</v>
+      </c>
+      <c r="P141" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q141" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R141" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S141" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T141" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U141" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V141" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W141" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W142" s="3"/>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W143" s="3"/>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W144" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
